--- a/SingleScatteringPlots.xlsx
+++ b/SingleScatteringPlots.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28000" windowHeight="20560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="9">
   <si>
     <t>Crystal Length (mm)</t>
   </si>
@@ -85,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -93,8 +93,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -106,24 +137,68 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -149,11 +224,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -163,28 +234,11 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$G$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Time (s)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>standardSS 100 GeV</c:v>
           </c:tx>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$17:$F$20</c:f>
+              <c:f>Sheet1!$C$11:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -205,7 +259,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$17:$G$20</c:f>
+              <c:f>Sheet1!$D$11:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -220,6 +274,142 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1598.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>local 100 GeV</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95.39</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>125.41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>standardSS 2 MeV</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$17:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$17:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>207.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>231.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>193.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>193.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200.73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -240,10 +430,31 @@
       <c:valAx>
         <c:axId val="2108355032"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
+          <c:min val="1.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Crystal length (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -255,11 +466,30 @@
       <c:valAx>
         <c:axId val="2108357848"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -270,140 +500,7 @@
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$F$17:$F$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$G$17:$G$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>45.14</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>506.35</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>909.98</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1598.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3259.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="2108983224"/>
-        <c:axId val="2108961320"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="2108983224"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108961320"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2108961320"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108983224"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
@@ -423,16 +520,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -451,42 +548,12 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1422400</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="D7:I21" totalsRowShown="0">
-  <autoFilter ref="D7:I21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F21" totalsRowShown="0">
+  <autoFilter ref="A1:F21"/>
   <tableColumns count="6">
     <tableColumn id="1" name="MS Model"/>
     <tableColumn id="2" name="Energy (eV)" dataDxfId="0"/>
@@ -821,316 +888,439 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:I21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" customWidth="1"/>
-    <col min="6" max="6" width="20.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9">
-      <c r="D7" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
+      <c r="B1" t="s">
         <v>3</v>
       </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>100000000000</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1.01</v>
+      </c>
+      <c r="E2">
+        <v>10000</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>100000000001</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E3">
+        <v>10000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>100000000002</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>1.5</v>
+      </c>
+      <c r="E4">
+        <v>10000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>100000000003</v>
+      </c>
+      <c r="C5">
+        <v>1000</v>
+      </c>
+      <c r="D5">
+        <v>3.59</v>
+      </c>
+      <c r="E5">
+        <v>10000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>100000000004</v>
+      </c>
+      <c r="C6">
+        <v>10000</v>
+      </c>
+      <c r="D6">
+        <v>15.11</v>
+      </c>
+      <c r="E6">
+        <v>10000</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>100000000005</v>
+      </c>
+      <c r="C7">
+        <v>25000</v>
+      </c>
+      <c r="D7">
+        <v>32.07</v>
+      </c>
+      <c r="E7">
+        <v>10000</v>
+      </c>
       <c r="F7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="4:9">
-      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="1">
+      <c r="B8" s="1">
+        <v>100000000006</v>
+      </c>
+      <c r="C8">
+        <v>50000</v>
+      </c>
+      <c r="D8">
+        <v>62.35</v>
+      </c>
+      <c r="E8">
+        <v>10000</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1">
+        <v>100000000007</v>
+      </c>
+      <c r="C9">
+        <v>75000</v>
+      </c>
+      <c r="D9">
+        <v>95.39</v>
+      </c>
+      <c r="E9">
+        <v>10000</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1">
+        <v>100000000008</v>
+      </c>
+      <c r="C10">
+        <v>100000</v>
+      </c>
+      <c r="D10">
+        <v>125.41</v>
+      </c>
+      <c r="E10">
+        <v>10000</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1">
+        <v>100000000008</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>45.14</v>
+      </c>
+      <c r="E11">
+        <v>10000</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1">
+        <v>100000000008</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>506.35</v>
+      </c>
+      <c r="E12">
+        <v>10000</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1">
+        <v>100000000008</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>909.98</v>
+      </c>
+      <c r="E13">
+        <v>10000</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1">
+        <v>100000000008</v>
+      </c>
+      <c r="C14" s="2">
+        <v>30</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1598.5</v>
+      </c>
+      <c r="E14">
+        <v>10000</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="7">
         <v>100000000000</v>
       </c>
-      <c r="F8">
+      <c r="C15" s="2">
+        <v>50</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3259</v>
+      </c>
+      <c r="E15" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>100000000000</v>
+      </c>
+      <c r="C16" s="2">
+        <v>100</v>
+      </c>
+      <c r="D16" s="2">
+        <v>5057.03</v>
+      </c>
+      <c r="E16" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2000000</v>
+      </c>
+      <c r="C17" s="2">
         <v>1</v>
       </c>
-      <c r="G8">
-        <v>1.01</v>
-      </c>
-      <c r="H8">
-        <v>10000</v>
-      </c>
-      <c r="I8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="4:9">
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="1">
-        <v>100000000001</v>
-      </c>
-      <c r="F9">
+      <c r="D17" s="2">
+        <v>207.8</v>
+      </c>
+      <c r="E17" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2000000</v>
+      </c>
+      <c r="C18" s="2">
         <v>10</v>
       </c>
-      <c r="G9">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="H9">
-        <v>10000</v>
-      </c>
-      <c r="I9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="4:9">
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="1">
-        <v>100000000002</v>
-      </c>
-      <c r="F10">
+      <c r="D18" s="2">
+        <v>231.65</v>
+      </c>
+      <c r="E18" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="7">
+        <v>2000000</v>
+      </c>
+      <c r="C19" s="2">
         <v>100</v>
       </c>
-      <c r="G10">
-        <v>1.5</v>
-      </c>
-      <c r="H10">
-        <v>10000</v>
-      </c>
-      <c r="I10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="4:9">
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="1">
-        <v>100000000003</v>
-      </c>
-      <c r="F11">
+      <c r="D19" s="2">
+        <v>193.04</v>
+      </c>
+      <c r="E19" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="4">
+        <v>2000000</v>
+      </c>
+      <c r="C20" s="5">
         <v>1000</v>
       </c>
-      <c r="G11">
-        <v>3.59</v>
-      </c>
-      <c r="H11">
-        <v>10000</v>
-      </c>
-      <c r="I11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="4:9">
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="1">
-        <v>100000000004</v>
-      </c>
-      <c r="F12">
-        <v>10000</v>
-      </c>
-      <c r="G12">
-        <v>15.11</v>
-      </c>
-      <c r="H12">
-        <v>10000</v>
-      </c>
-      <c r="I12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="4:9">
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="1">
-        <v>100000000005</v>
-      </c>
-      <c r="F13">
-        <v>25000</v>
-      </c>
-      <c r="G13">
-        <v>32.07</v>
-      </c>
-      <c r="H13">
-        <v>10000</v>
-      </c>
-      <c r="I13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="4:9">
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="1">
-        <v>100000000006</v>
-      </c>
-      <c r="F14">
-        <v>50000</v>
-      </c>
-      <c r="G14">
-        <v>62.35</v>
-      </c>
-      <c r="H14">
-        <v>10000</v>
-      </c>
-      <c r="I14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="4:9">
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="1">
-        <v>100000000007</v>
-      </c>
-      <c r="F15">
-        <v>75000</v>
-      </c>
-      <c r="G15">
-        <v>95.39</v>
-      </c>
-      <c r="H15">
-        <v>10000</v>
-      </c>
-      <c r="I15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="4:9">
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="1">
-        <v>100000000008</v>
-      </c>
-      <c r="F16">
-        <v>100000</v>
-      </c>
-      <c r="G16">
-        <v>125.41</v>
-      </c>
-      <c r="H16">
-        <v>10000</v>
-      </c>
-      <c r="I16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="4:9">
-      <c r="D17" t="s">
+      <c r="D20" s="5">
+        <v>193.04</v>
+      </c>
+      <c r="E20" s="5">
+        <v>10000</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="1">
-        <v>100000000008</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>45.14</v>
-      </c>
-      <c r="H17">
-        <v>10000</v>
-      </c>
-      <c r="I17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="4:9">
-      <c r="D18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="1">
-        <v>100000000008</v>
-      </c>
-      <c r="F18">
-        <v>10</v>
-      </c>
-      <c r="G18">
-        <v>506.35</v>
-      </c>
-      <c r="H18">
-        <v>10000</v>
-      </c>
-      <c r="I18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="4:9">
-      <c r="D19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="1">
-        <v>100000000008</v>
-      </c>
-      <c r="F19">
-        <v>20</v>
-      </c>
-      <c r="G19">
-        <v>909.98</v>
-      </c>
-      <c r="H19">
-        <v>10000</v>
-      </c>
-      <c r="I19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="4:9">
-      <c r="D20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="1">
-        <v>100000000008</v>
-      </c>
-      <c r="F20" s="2">
-        <v>30</v>
-      </c>
-      <c r="G20" s="2">
-        <v>1598.5</v>
-      </c>
-      <c r="H20">
-        <v>10000</v>
-      </c>
-      <c r="I20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="4:9">
-      <c r="D21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3">
-        <v>100000000000</v>
-      </c>
-      <c r="F21" s="2">
-        <v>50</v>
-      </c>
-      <c r="G21" s="2">
-        <v>3259</v>
-      </c>
-      <c r="H21" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I21" s="2" t="s">
+      <c r="B21" s="4">
+        <v>2000000</v>
+      </c>
+      <c r="C21" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D21" s="2">
+        <v>200.73</v>
+      </c>
+      <c r="E21" s="5">
+        <v>10000</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>8</v>
       </c>
     </row>

--- a/SingleScatteringPlots.xlsx
+++ b/SingleScatteringPlots.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28000" windowHeight="20560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -360,62 +360,6 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>standardSS 2 MeV</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$17:$C$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$17:$D$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>207.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>231.65</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>193.04</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>193.04</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200.73</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -424,11 +368,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2108355032"/>
-        <c:axId val="2108357848"/>
+        <c:axId val="2120223448"/>
+        <c:axId val="2116373832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2108355032"/>
+        <c:axId val="2120223448"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -459,12 +403,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108357848"/>
+        <c:crossAx val="2116373832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2108357848"/>
+        <c:axId val="2116373832"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -494,7 +438,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108355032"/>
+        <c:crossAx val="2120223448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
